--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-campaigns.xlsx
@@ -180,7 +180,7 @@
     <t>,(Citation: Cylance Dust Storm),</t>
   </si>
   <si>
-    <t>(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation Dec2023),(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 01Jun2023),</t>
+    <t>(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 01Jun2023),(Citation: SecureList OpTriangulation Dec2023),(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-campaigns.xlsx
@@ -174,13 +174,13 @@
     <t>Hiroki Nagahama, NEC Corporation; Manikantan Srinivasan, NEC Corporation India; Pooja Natarajan, NEC Corporation India</t>
   </si>
   <si>
-    <t>,(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>,(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
     <t>,(Citation: Cylance Dust Storm),</t>
   </si>
   <si>
-    <t>(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 01Jun2023),(Citation: SecureList OpTriangulation Dec2023),(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),</t>
+    <t>(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 01Jun2023),(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation Dec2023),</t>
   </si>
   <si>
     <t>source ID</t>
@@ -937,16 +937,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -969,7 +961,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -977,35 +969,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1308,55 +1282,55 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1373,7 +1347,7 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
@@ -1420,7 +1394,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
@@ -1464,7 +1438,7 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
@@ -1514,43 +1488,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1650,43 +1624,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3508,43 +3482,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3603,13 +3577,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3620,7 +3594,7 @@
       <c r="B2" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3631,7 +3605,7 @@
       <c r="B3" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3642,7 +3616,7 @@
       <c r="B4" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3653,7 +3627,7 @@
       <c r="B5" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3664,7 +3638,7 @@
       <c r="B6" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3675,7 +3649,7 @@
       <c r="B7" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3686,7 +3660,7 @@
       <c r="B8" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3697,7 +3671,7 @@
       <c r="B9" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3708,7 +3682,7 @@
       <c r="B10" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3719,7 +3693,7 @@
       <c r="B11" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3730,7 +3704,7 @@
       <c r="B12" t="s">
         <v>293</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3741,7 +3715,7 @@
       <c r="B13" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3752,7 +3726,7 @@
       <c r="B14" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>295</v>
       </c>
     </row>
